--- a/refs/heads/master/StructureDefinition-PractitionerLE.xlsx
+++ b/refs/heads/master/StructureDefinition-PractitionerLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
